--- a/similarities/split_global/harmonic_similarity_timestamps_286.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_286.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,734 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
+          <t>('0:00:46.960000', '0:00:50.740000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.120000', '0:01:09.420000')]</t>
+          <t>('0:01:30.080000', '0:01:42')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=93.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=63.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:00:00.560000', '0:00:04.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.703786')]</t>
+          <t>('0:00:25.480000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['Bb', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:44.620000', '0:00:47.460000'), ('0:01:41.180000', '0:01:53.780000')]</t>
+          <t>('0:00:00.440395', '0:00:09.431879')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:56.500000', '0:02:58.780000'), ('0:00:23.080000', '0:00:29.900000')]</t>
+          <t>('0:00:10.286000', '0:00:15.006000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=44.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=101.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=0.440395</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=176.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=10.286</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.820000', '0:00:46.240000')]</t>
+          <t>('0:00:43.040000', '0:00:46.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.360000', '0:00:18.960000')]</t>
+          <t>('0:00:09.240000', '0:00:11.880000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=18.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=43.04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=11.36']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=9.24</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Ab:7', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:01:55.080000', '0:02:01.030000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:00.442301', '0:00:13.370949')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=0.442301</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min'], ['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:18.180000'), ('0:00:06.900000', '0:00:15.820000')]</t>
+          <t>('0:00:09.720000', '0:00:13')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:08.220000'), ('0:00:00.660000', '0:00:06.480000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=6.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:07.140000', '0:00:14.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F', 'Bb', 'F', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:01:00.040000', '0:01:10.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:15.124263', '0:00:21.811609')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A:7', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.500000', '0:00:26.200000')]</t>
+          <t>('0:00:38.689000', '0:00:45.633000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:40.636000')]</t>
+          <t>('0:00:00.442301', '0:00:13.370949')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=0.442301</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:23.420000', '0:00:31.440000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:00:53.500000', '0:01:01.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:06.220000', '0:01:12.300000')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=53.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=66.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+          <t>('0:00:32.540000', '0:00:43.920000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:01:33.480000', '0:01:47.700000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=32.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=93.48</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.540000', '0:01:00')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['E:7', 'A:min', 'A:min/b3']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.180000', '0:00:06.140000'), ('0:00:09.260000', '0:00:13.900000')]</t>
+          <t>('0:00:05.672040', '0:00:08.841564')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:32.200000', '0:00:33.700000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
